--- a/REGULAR/CCT/CHACON, ELISA.xlsx
+++ b/REGULAR/CCT/CHACON, ELISA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="351">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1088,6 +1088,12 @@
   </si>
   <si>
     <t>UT(0-1-44)</t>
+  </si>
+  <si>
+    <t>10/11-13/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2194,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1890" topLeftCell="A499" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="I516" sqref="I516"/>
+      <selection pane="bottomLeft" activeCell="H522" sqref="H522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2355,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.44399999999996</v>
+        <v>88.19399999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2359,7 +2365,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>181.25</v>
+        <v>182</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13582,13 +13588,15 @@
       <c r="B516" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H516" s="39">
         <v>1</v>
@@ -13600,42 +13608,64 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40"/>
-      <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="A517" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H517" s="39"/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H517" s="39">
+        <v>3</v>
+      </c>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20"/>
+      <c r="K517" s="20" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="40"/>
-      <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
+      <c r="A518" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B518" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
+      <c r="K518" s="49">
+        <v>45245</v>
+      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
-      <c r="B519" s="20"/>
+      <c r="B519" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C519" s="13"/>
-      <c r="D519" s="39"/>
+      <c r="D519" s="39">
+        <v>1</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
       <c r="G519" s="13" t="str">
@@ -13645,13 +13675,19 @@
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="20"/>
+      <c r="K519" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
-      <c r="B520" s="20"/>
+      <c r="B520" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C520" s="13"/>
-      <c r="D520" s="39"/>
+      <c r="D520" s="39">
+        <v>3</v>
+      </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
       <c r="G520" s="13" t="str">
@@ -13661,7 +13697,9 @@
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
+      <c r="K520" s="20" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
